--- a/data/case1/11/Qlm1_14.xlsx
+++ b/data/case1/11/Qlm1_14.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.22304712877402721</v>
+        <v>-0.2267693919272773</v>
       </c>
       <c r="B1" s="0">
-        <v>0.22289305267965887</v>
+        <v>0.2265989915284905</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.14529463010858645</v>
+        <v>-0.20449639056043889</v>
       </c>
       <c r="B2" s="0">
-        <v>0.14495023553627995</v>
+        <v>0.20380148102344897</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.095250586657561698</v>
+        <v>-0.10382851170790452</v>
       </c>
       <c r="B3" s="0">
-        <v>0.094937189828790736</v>
+        <v>0.10355405099605619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.086937189950672789</v>
+        <v>-0.095554051092774372</v>
       </c>
       <c r="B4" s="0">
-        <v>0.086576856690252058</v>
+        <v>0.09508730421719136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.083576856759362883</v>
+        <v>-0.092087304273766435</v>
       </c>
       <c r="B5" s="0">
-        <v>0.082358242409356741</v>
+        <v>0.090497240551423275</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.027777706509166222</v>
+        <v>-0.05267360220647177</v>
       </c>
       <c r="B6" s="0">
-        <v>0.027646335173182379</v>
+        <v>0.052078648558984142</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.017646335348104003</v>
+        <v>-0.042078648696300291</v>
       </c>
       <c r="B7" s="0">
-        <v>0.017628280726825984</v>
+        <v>0.041928825570896944</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.007628280904488971</v>
+        <v>-0.031928825712881803</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0076207575424027674</v>
+        <v>0.031646907569003346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0056207576270348447</v>
+        <v>-0.029646907643547937</v>
       </c>
       <c r="B9" s="0">
-        <v>0.00561865936896222</v>
+        <v>0.029410087352455427</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0036186594549736384</v>
+        <v>-0.027410087432551578</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0036192947225544003</v>
+        <v>0.027395181733666618</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.00061929482047862194</v>
+        <v>-0.024395181823551937</v>
       </c>
       <c r="B11" s="0">
-        <v>0.00061958025936359462</v>
+        <v>0.024369043809220337</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0028804196367291368</v>
+        <v>-0.02086904390496791</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0028921525603315956</v>
+        <v>0.020672028952176014</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.006392152456996314</v>
+        <v>-0.017172029053683424</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0064085530303179539</v>
+        <v>0.017082623813123199</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.014408552874025204</v>
+        <v>-0.0090826239575259038</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.014445519776553617</v>
+        <v>0.0090537210597760875</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.015445519704866406</v>
+        <v>-0.0080537211411879639</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.015499287628633063</v>
+        <v>0.0080350807127045343</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060321766843483005</v>
+        <v>-0.0060350808042910487</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060028840753063584</v>
+        <v>0.0060033072695362399</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040028841583135133</v>
+        <v>-0.0040033073626464244</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999998928159641</v>
+        <v>0.0039999998881734555</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.071598422644118642</v>
+        <v>-0.016102601025302477</v>
       </c>
       <c r="B18" s="0">
-        <v>0.071460770832192821</v>
+        <v>0.016090935491671843</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.015763809954227881</v>
+        <v>-0.012090935530614466</v>
       </c>
       <c r="B19" s="0">
-        <v>0.015656142471377255</v>
+        <v>0.012016130962197114</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.011656142529009372</v>
+        <v>-0.0080161310038899813</v>
       </c>
       <c r="B20" s="0">
-        <v>0.011637885399862213</v>
+        <v>0.008005619013660592</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040055444014921449</v>
+        <v>-0.0040056190557846705</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999409472409</v>
+        <v>0.0039999999575321965</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045699648945783267</v>
+        <v>-0.0457055898658556</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045490550903510396</v>
+        <v>0.045494536240504146</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040490550986866047</v>
+        <v>-0.040494536307243756</v>
       </c>
       <c r="B23" s="0">
-        <v>0.04009714581514956</v>
+        <v>0.040098028044343259</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097146084984807</v>
+        <v>-0.020098028253709543</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999726382889</v>
+        <v>0.019999999787942535</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.052580535978588472</v>
+        <v>-0.035823638407117997</v>
       </c>
       <c r="B25" s="0">
-        <v>0.052518410099880342</v>
+        <v>0.035803356896359162</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.050018410186089213</v>
+        <v>-0.033303356963793718</v>
       </c>
       <c r="B26" s="0">
-        <v>0.049939929620348877</v>
+        <v>0.033279532295669156</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091900629304556336</v>
+        <v>-0.030779532364270334</v>
       </c>
       <c r="B27" s="0">
-        <v>0.090979014266949765</v>
+        <v>0.030648483832369067</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.088979014381123989</v>
+        <v>-0.028648483901972277</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088348340966907024</v>
+        <v>0.028573459868383111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081348341159371174</v>
+        <v>-0.021573459987528132</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081166191838384805</v>
+        <v>0.021561937789405405</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021166192668615302</v>
+        <v>0.038438061605584384</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021020970471357092</v>
+        <v>-0.038533447554851552</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014020970678723543</v>
+        <v>0.037820935324427651</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000642928767348</v>
+        <v>-0.037861087317322628</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040006431726773428</v>
+        <v>0.047861087176654493</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999998270570103</v>
+        <v>-0.047993854734903252</v>
       </c>
     </row>
   </sheetData>
